--- a/시험결과집계_result.xlsx
+++ b/시험결과집계_result.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,14 +222,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01-2024-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>불합격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>김성준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>합격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,119 +242,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>최지연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2024-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>영어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>불합격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서병무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이다정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-2024-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>합격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02-2024-02</t>
+    <t>박민지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-2024-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박조은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-2024-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2024-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고민아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2024-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서민정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-2024-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김다정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-2024-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이민지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-2024-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-2024-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오선경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2024-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>영어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서병무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-2024-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이다정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-2024-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박민지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-2024-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박조은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01-2024-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불합격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-2024-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고민아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-2024-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서민정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01-2024-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-2024-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이민지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불합격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김지연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01-2024-05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오선경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-2024-05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1181,16 +1185,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="H3" s="9">
         <v>0.4</v>
@@ -1198,7 +1202,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -1210,7 +1214,7 @@
         <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="H4" s="9">
         <v>0.6</v>
@@ -1224,13 +1228,13 @@
         <v>49</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" s="9">
         <v>0.6</v>
@@ -1238,16 +1242,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1255,13 +1259,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>44</v>
@@ -1269,142 +1273,142 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C9" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C17" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
